--- a/Readability/readability_results_sorted.xlsx
+++ b/Readability/readability_results_sorted.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UC Irvine\01 - Academics\3_Spring 24\EECS232 Data Privacy\Project\data_privacy_readability_ws\Readability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865F5514-623C-443E-BE9F-E41E2DCFCF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74007563-F3C5-4103-B2EE-AD0E629165A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="2610" windowWidth="24165" windowHeight="14700" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
+    <workbookView xWindow="20355" yWindow="2925" windowWidth="17895" windowHeight="14700" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="readability_results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">readability_results!$A$1:$L$32</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -659,13 +662,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,10 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE773D15-C3A2-4B50-9ADC-8BCA9C5A31DC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW17" sqref="AW17"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,42 +1112,42 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>43214</v>
+        <v>45379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>14.2333389006409</v>
+        <v>13.8603450025931</v>
       </c>
       <c r="E2" s="2">
-        <v>16.028324756101402</v>
+        <v>15.6745905262897</v>
       </c>
       <c r="F2" s="2">
-        <v>13.4078928104379</v>
+        <v>13.7346899664369</v>
       </c>
       <c r="G2" s="2">
-        <v>39.897295946073903</v>
+        <v>40.208648446568397</v>
       </c>
       <c r="H2" s="2">
-        <v>17.127101316578699</v>
+        <v>17.3060685090513</v>
       </c>
       <c r="I2" s="2">
-        <v>58.974521937717697</v>
+        <v>59.002001679385501</v>
       </c>
       <c r="J2" s="2">
-        <v>14.4132886537902</v>
+        <v>14.704699910719601</v>
       </c>
       <c r="K2" s="2">
-        <v>8.5947368421052595</v>
+        <v>8.5</v>
       </c>
       <c r="L2" s="2">
-        <v>11.067319151538101</v>
+        <v>11.112905929218799</v>
       </c>
       <c r="N2" t="s">
         <v>43</v>
@@ -1233,7 +1236,7 @@
       <c r="AP2">
         <v>1940</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" t="s">
         <v>41</v>
       </c>
       <c r="AR2" t="s">
@@ -1315,42 +1318,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>42607</v>
+        <v>45348</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>11.7909580183521</v>
+        <v>10.7621662120139</v>
       </c>
       <c r="E3" s="2">
-        <v>13.0793438881757</v>
+        <v>11.8765889666821</v>
       </c>
       <c r="F3" s="2">
-        <v>12.8444242358674</v>
+        <v>11.332021062821701</v>
       </c>
       <c r="G3" s="2">
-        <v>47.6699400941378</v>
+        <v>55.080798912614704</v>
       </c>
       <c r="H3" s="2">
-        <v>14.3297675082014</v>
+        <v>13.9451935700726</v>
       </c>
       <c r="I3" s="2">
-        <v>53.017401226643798</v>
+        <v>49.063854982328301</v>
       </c>
       <c r="J3" s="2">
-        <v>12.677734062546101</v>
+        <v>12.3596637645336</v>
       </c>
       <c r="K3" s="2">
-        <v>6.7073170731707297</v>
+        <v>5.8842975206611499</v>
       </c>
       <c r="L3" s="2">
-        <v>10.512833666143599</v>
+        <v>10.379721423831899</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
@@ -1439,7 +1442,7 @@
       <c r="AP3">
         <v>949</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" t="s">
         <v>41</v>
       </c>
       <c r="AR3" t="s">
@@ -1521,42 +1524,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>42607</v>
+        <v>45338</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>11.7909580183521</v>
+        <v>14.8580413378647</v>
       </c>
       <c r="E4" s="2">
-        <v>13.0793438881757</v>
+        <v>17.095412634649101</v>
       </c>
       <c r="F4" s="2">
-        <v>12.8444242358674</v>
+        <v>13.8790491277031</v>
       </c>
       <c r="G4" s="2">
-        <v>47.6699400941378</v>
+        <v>38.045449796275697</v>
       </c>
       <c r="H4" s="2">
-        <v>14.3297675082014</v>
+        <v>17.435424876583699</v>
       </c>
       <c r="I4" s="2">
-        <v>53.017401226643798</v>
+        <v>61.0278849875708</v>
       </c>
       <c r="J4" s="2">
-        <v>12.677734062546101</v>
+        <v>14.4756776039843</v>
       </c>
       <c r="K4" s="2">
-        <v>6.7073170731707297</v>
+        <v>9.2371323529411704</v>
       </c>
       <c r="L4" s="2">
-        <v>10.512833666143599</v>
+        <v>11.4915751527871</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
@@ -1645,7 +1648,7 @@
       <c r="AP4">
         <v>949</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AQ4" t="s">
         <v>41</v>
       </c>
       <c r="AR4" t="s">
@@ -1727,42 +1730,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>45264</v>
+        <v>45317</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>14.8580413378647</v>
+        <v>10.544093417274601</v>
       </c>
       <c r="E5" s="2">
-        <v>17.095412634649101</v>
+        <v>11.915977005498601</v>
       </c>
       <c r="F5" s="2">
-        <v>13.8790491277031</v>
+        <v>11.2358361439153</v>
       </c>
       <c r="G5" s="2">
-        <v>38.045449796275697</v>
+        <v>57.1089719849601</v>
       </c>
       <c r="H5" s="2">
-        <v>17.435424876583699</v>
+        <v>13.5995546958577</v>
       </c>
       <c r="I5" s="2">
-        <v>61.0278849875708</v>
+        <v>49.085810397996603</v>
       </c>
       <c r="J5" s="2">
-        <v>14.4756776039843</v>
+        <v>12.031361758210499</v>
       </c>
       <c r="K5" s="2">
-        <v>9.2371323529411704</v>
+        <v>5.9073482428114996</v>
       </c>
       <c r="L5" s="2">
-        <v>11.4915751527871</v>
+        <v>10.482776755075401</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
@@ -1851,7 +1854,7 @@
       <c r="AP5">
         <v>6202</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" t="s">
         <v>41</v>
       </c>
       <c r="AR5" t="s">
@@ -1935,40 +1938,40 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>43818</v>
+        <v>45287</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>11.8515861665879</v>
+        <v>16.057866212720899</v>
       </c>
       <c r="E6" s="2">
-        <v>13.1443690153455</v>
+        <v>18.7466172726016</v>
       </c>
       <c r="F6" s="2">
-        <v>12.8890488955281</v>
+        <v>13.032940023003301</v>
       </c>
       <c r="G6" s="2">
-        <v>47.352278894222401</v>
+        <v>38.195901879856997</v>
       </c>
       <c r="H6" s="2">
-        <v>14.3353595145123</v>
+        <v>18.813973363988499</v>
       </c>
       <c r="I6" s="2">
-        <v>53.186124306712699</v>
+        <v>63.2020315975833</v>
       </c>
       <c r="J6" s="2">
-        <v>12.676209601805001</v>
+        <v>14.856223368901601</v>
       </c>
       <c r="K6" s="2">
-        <v>6.75</v>
+        <v>9.9739413680781706</v>
       </c>
       <c r="L6" s="2">
-        <v>10.536000539707</v>
+        <v>11.681372051844701</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
@@ -2057,7 +2060,7 @@
       <c r="AP6">
         <v>963</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" t="s">
         <v>41</v>
       </c>
       <c r="AR6" t="s">
@@ -2141,40 +2144,40 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4">
-        <v>45338</v>
+        <v>45287</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>14.8580413378647</v>
+        <v>16.2025613557376</v>
       </c>
       <c r="E7" s="2">
-        <v>17.095412634649101</v>
+        <v>18.8895049008269</v>
       </c>
       <c r="F7" s="2">
-        <v>13.8790491277031</v>
+        <v>13.1846824421714</v>
       </c>
       <c r="G7" s="2">
-        <v>38.045449796275697</v>
+        <v>37.238031779493497</v>
       </c>
       <c r="H7" s="2">
-        <v>17.435424876583699</v>
+        <v>19.009996040820202</v>
       </c>
       <c r="I7" s="2">
-        <v>61.0278849875708</v>
+        <v>63.734822076022098</v>
       </c>
       <c r="J7" s="2">
-        <v>14.4756776039843</v>
+        <v>15.047351830646701</v>
       </c>
       <c r="K7" s="2">
-        <v>9.2371323529411704</v>
+        <v>10.1474452554744</v>
       </c>
       <c r="L7" s="2">
-        <v>11.4915751527871</v>
+        <v>11.737730684352501</v>
       </c>
       <c r="N7" t="s">
         <v>43</v>
@@ -2263,7 +2266,7 @@
       <c r="AP7">
         <v>6202</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AQ7" t="s">
         <v>41</v>
       </c>
       <c r="AR7" t="s">
@@ -2345,42 +2348,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>44200</v>
+        <v>45264</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>13.9803380569067</v>
+        <v>14.8580413378647</v>
       </c>
       <c r="E8" s="2">
-        <v>15.5819710276189</v>
+        <v>17.095412634649101</v>
       </c>
       <c r="F8" s="2">
-        <v>13.5767093748397</v>
+        <v>13.8790491277031</v>
       </c>
       <c r="G8" s="2">
-        <v>39.479114742128502</v>
+        <v>38.045449796275697</v>
       </c>
       <c r="H8" s="2">
-        <v>16.557987706836499</v>
+        <v>17.435424876583699</v>
       </c>
       <c r="I8" s="2">
-        <v>58.234974965908798</v>
+        <v>61.0278849875708</v>
       </c>
       <c r="J8" s="2">
-        <v>14.0808715490124</v>
+        <v>14.4756776039843</v>
       </c>
       <c r="K8" s="2">
-        <v>8.3142857142857096</v>
+        <v>9.2371323529411704</v>
       </c>
       <c r="L8" s="2">
-        <v>11.167520650886299</v>
+        <v>11.4915751527871</v>
       </c>
       <c r="N8" t="s">
         <v>43</v>
@@ -2469,7 +2472,7 @@
       <c r="AP8">
         <v>2795</v>
       </c>
-      <c r="AQ8" s="5" t="s">
+      <c r="AQ8" t="s">
         <v>41</v>
       </c>
       <c r="AR8" t="s">
@@ -2551,42 +2554,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>44200</v>
+        <v>45249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>12.9082454458293</v>
+        <v>13.0858792815764</v>
       </c>
       <c r="E9" s="2">
-        <v>14.3932570617302</v>
+        <v>14.700080285431399</v>
       </c>
       <c r="F9" s="2">
-        <v>13.3210607576701</v>
+        <v>14.304046346314299</v>
       </c>
       <c r="G9" s="2">
-        <v>43.345401947046199</v>
+        <v>40.1810571411119</v>
       </c>
       <c r="H9" s="2">
-        <v>15.4491924183199</v>
+        <v>15.587431868586201</v>
       </c>
       <c r="I9" s="2">
-        <v>55.545320451360702</v>
+        <v>57.2346900098986</v>
       </c>
       <c r="J9" s="2">
-        <v>13.390718597240101</v>
+        <v>13.592258774498699</v>
       </c>
       <c r="K9" s="2">
-        <v>7.4780219780219701</v>
+        <v>7.7331081081080999</v>
       </c>
       <c r="L9" s="2">
-        <v>10.757183081348099</v>
+        <v>11.172500259786901</v>
       </c>
       <c r="N9" t="s">
         <v>43</v>
@@ -2675,7 +2678,7 @@
       <c r="AP9">
         <v>1581</v>
       </c>
-      <c r="AQ9" s="5" t="s">
+      <c r="AQ9" t="s">
         <v>41</v>
       </c>
       <c r="AR9" t="s">
@@ -2759,40 +2762,40 @@
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="4">
-        <v>41097</v>
+        <v>45092</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>16.465115654858</v>
+        <v>16.028972572819601</v>
       </c>
       <c r="E10" s="2">
-        <v>19.6280318543307</v>
+        <v>18.707954663803001</v>
       </c>
       <c r="F10" s="2">
-        <v>13.643549939633401</v>
+        <v>13.022219048461</v>
       </c>
       <c r="G10" s="2">
-        <v>36.736674387092002</v>
+        <v>38.290946259992502</v>
       </c>
       <c r="H10" s="2">
-        <v>19.189985670313298</v>
+        <v>18.782539445754999</v>
       </c>
       <c r="I10" s="2">
-        <v>66.120849910601805</v>
+        <v>63.098394634907599</v>
       </c>
       <c r="J10" s="2">
-        <v>15.0540949398649</v>
+        <v>14.8383420065233</v>
       </c>
       <c r="K10" s="2">
-        <v>10.927710843373401</v>
+        <v>9.9414634146341392</v>
       </c>
       <c r="L10" s="2">
-        <v>11.6825440298022</v>
+        <v>11.675450719543299</v>
       </c>
       <c r="N10" t="s">
         <v>43</v>
@@ -2881,7 +2884,7 @@
       <c r="AP10">
         <v>1125</v>
       </c>
-      <c r="AQ10" s="5" t="s">
+      <c r="AQ10" t="s">
         <v>41</v>
       </c>
       <c r="AR10" t="s">
@@ -2965,40 +2968,40 @@
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="4">
-        <v>41097</v>
+        <v>45092</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>16.465115654858</v>
+        <v>16.1766729177771</v>
       </c>
       <c r="E11" s="2">
-        <v>19.6280318543307</v>
+        <v>18.854853597680101</v>
       </c>
       <c r="F11" s="2">
-        <v>13.643549939633401</v>
+        <v>13.1751266812892</v>
       </c>
       <c r="G11" s="2">
-        <v>36.736674387092002</v>
+        <v>37.323017519031097</v>
       </c>
       <c r="H11" s="2">
-        <v>19.189985670313298</v>
+        <v>18.9818458757812</v>
       </c>
       <c r="I11" s="2">
-        <v>66.120849910601805</v>
+        <v>63.642033886100698</v>
       </c>
       <c r="J11" s="2">
-        <v>15.0540949398649</v>
+        <v>15.0313002867072</v>
       </c>
       <c r="K11" s="2">
-        <v>10.927710843373401</v>
+        <v>10.1180758017492</v>
       </c>
       <c r="L11" s="2">
-        <v>11.6825440298022</v>
+        <v>11.7324373777413</v>
       </c>
       <c r="N11" t="s">
         <v>43</v>
@@ -3087,7 +3090,7 @@
       <c r="AP11">
         <v>1125</v>
       </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AQ11" t="s">
         <v>41</v>
       </c>
       <c r="AR11" t="s">
@@ -3169,7 +3172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3293,7 +3296,7 @@
       <c r="AP12">
         <v>4729</v>
       </c>
-      <c r="AQ12" s="5" t="s">
+      <c r="AQ12" t="s">
         <v>41</v>
       </c>
       <c r="AR12" t="s">
@@ -3377,40 +3380,40 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13" s="4">
-        <v>44032</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>11.955405970149201</v>
+        <v>15.331419410464999</v>
       </c>
       <c r="E13" s="2">
-        <v>13.267063432835799</v>
+        <v>17.893871099854501</v>
       </c>
       <c r="F13" s="2">
-        <v>12.7515830123134</v>
+        <v>12.808579608535799</v>
       </c>
       <c r="G13" s="2">
-        <v>47.535265671641802</v>
+        <v>40.890315514361099</v>
       </c>
       <c r="H13" s="2">
-        <v>14.396895522388</v>
+        <v>18.266961254513099</v>
       </c>
       <c r="I13" s="2">
-        <v>53.268358208955199</v>
+        <v>61.352050439187302</v>
       </c>
       <c r="J13" s="2">
-        <v>12.6747092979582</v>
+        <v>14.615356734055499</v>
       </c>
       <c r="K13" s="2">
-        <v>6.8239999999999998</v>
+        <v>9.4063079777365495</v>
       </c>
       <c r="L13" s="2">
-        <v>10.4974463880597</v>
+        <v>11.3701343158915</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
@@ -3499,7 +3502,7 @@
       <c r="AP13">
         <v>984</v>
       </c>
-      <c r="AQ13" s="5" t="s">
+      <c r="AQ13" t="s">
         <v>41</v>
       </c>
       <c r="AR13" t="s">
@@ -3583,40 +3586,40 @@
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" s="4">
-        <v>44630</v>
+        <v>44927</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>14.508187429704</v>
+        <v>15.585148307653901</v>
       </c>
       <c r="E14" s="2">
-        <v>16.8004243738533</v>
+        <v>18.159799326796801</v>
       </c>
       <c r="F14" s="2">
-        <v>13.7925516750922</v>
+        <v>13.013155622379401</v>
       </c>
       <c r="G14" s="2">
-        <v>39.696195973627802</v>
+        <v>39.4531005050302</v>
       </c>
       <c r="H14" s="2">
-        <v>17.110920411199199</v>
+        <v>18.5585310288307</v>
       </c>
       <c r="I14" s="2">
-        <v>60.138099804646501</v>
+        <v>62.189908178641801</v>
       </c>
       <c r="J14" s="2">
-        <v>14.256447783720001</v>
+        <v>14.861910387150401</v>
       </c>
       <c r="K14" s="2">
-        <v>8.9656019656019605</v>
+        <v>9.6672131147540892</v>
       </c>
       <c r="L14" s="2">
-        <v>11.3544545447694</v>
+        <v>11.4734942050634</v>
       </c>
       <c r="N14" t="s">
         <v>43</v>
@@ -3705,7 +3708,7 @@
       <c r="AP14">
         <v>4480</v>
       </c>
-      <c r="AQ14" s="5" t="s">
+      <c r="AQ14" t="s">
         <v>41</v>
       </c>
       <c r="AR14" t="s">
@@ -3789,40 +3792,40 @@
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
-        <v>44879</v>
+        <v>44768</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>14.472168281527701</v>
+        <v>17.260049050856999</v>
       </c>
       <c r="E15" s="2">
-        <v>16.6794562772189</v>
+        <v>19.881484747603501</v>
       </c>
       <c r="F15" s="2">
-        <v>13.8555743561715</v>
+        <v>14.467303549936201</v>
       </c>
       <c r="G15" s="2">
-        <v>39.301650901731897</v>
+        <v>29.524244610898599</v>
       </c>
       <c r="H15" s="2">
-        <v>17.074485277937899</v>
+        <v>20.501036501865201</v>
       </c>
       <c r="I15" s="2">
-        <v>60.0737033255581</v>
+        <v>67.827176890022201</v>
       </c>
       <c r="J15" s="2">
-        <v>14.279806849108301</v>
+        <v>16.493825748590801</v>
       </c>
       <c r="K15" s="2">
-        <v>8.9267139479905406</v>
+        <v>11.4861111111111</v>
       </c>
       <c r="L15" s="2">
-        <v>11.356164457647001</v>
+        <v>12.196197587004701</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
@@ -3911,7 +3914,7 @@
       <c r="AP15">
         <v>4608</v>
       </c>
-      <c r="AQ15" s="5" t="s">
+      <c r="AQ15" t="s">
         <v>41</v>
       </c>
       <c r="AR15" t="s">
@@ -3995,40 +3998,40 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="4">
-        <v>44522</v>
+        <v>44768</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>14.7198088410991</v>
+        <v>17.260049050856999</v>
       </c>
       <c r="E16" s="2">
-        <v>17.034600183851101</v>
+        <v>19.881484747603501</v>
       </c>
       <c r="F16" s="2">
-        <v>13.876921569096901</v>
+        <v>14.467303549936201</v>
       </c>
       <c r="G16" s="2">
-        <v>38.8121220787596</v>
+        <v>29.524244610898599</v>
       </c>
       <c r="H16" s="2">
-        <v>17.410022179185599</v>
+        <v>20.501036501865201</v>
       </c>
       <c r="I16" s="2">
-        <v>60.689435324208397</v>
+        <v>67.827176890022201</v>
       </c>
       <c r="J16" s="2">
-        <v>14.4722666995588</v>
+        <v>16.493825748590801</v>
       </c>
       <c r="K16" s="2">
-        <v>9.1364764267989997</v>
+        <v>11.4861111111111</v>
       </c>
       <c r="L16" s="2">
-        <v>11.3696768906548</v>
+        <v>12.196197587004701</v>
       </c>
       <c r="N16" t="s">
         <v>43</v>
@@ -4117,7 +4120,7 @@
       <c r="AP16">
         <v>4492</v>
       </c>
-      <c r="AQ16" s="5" t="s">
+      <c r="AQ16" t="s">
         <v>41</v>
       </c>
       <c r="AR16" t="s">
@@ -4199,42 +4202,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>45287</v>
+        <v>44879</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>16.057866212720899</v>
+        <v>14.472168281527701</v>
       </c>
       <c r="E17" s="2">
-        <v>18.7466172726016</v>
+        <v>16.6794562772189</v>
       </c>
       <c r="F17" s="2">
-        <v>13.032940023003301</v>
+        <v>13.8555743561715</v>
       </c>
       <c r="G17" s="2">
-        <v>38.195901879856997</v>
+        <v>39.301650901731897</v>
       </c>
       <c r="H17" s="2">
-        <v>18.813973363988499</v>
+        <v>17.074485277937899</v>
       </c>
       <c r="I17" s="2">
-        <v>63.2020315975833</v>
+        <v>60.0737033255581</v>
       </c>
       <c r="J17" s="2">
-        <v>14.856223368901601</v>
+        <v>14.279806849108301</v>
       </c>
       <c r="K17" s="2">
-        <v>9.9739413680781706</v>
+        <v>8.9267139479905406</v>
       </c>
       <c r="L17" s="2">
-        <v>11.681372051844701</v>
+        <v>11.356164457647001</v>
       </c>
       <c r="N17" t="s">
         <v>43</v>
@@ -4323,7 +4326,7 @@
       <c r="AP17">
         <v>8169</v>
       </c>
-      <c r="AQ17" s="5" t="s">
+      <c r="AQ17" t="s">
         <v>41</v>
       </c>
       <c r="AR17" t="s">
@@ -4405,42 +4408,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>45287</v>
+        <v>44630</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>16.2025613557376</v>
+        <v>14.508187429704</v>
       </c>
       <c r="E18" s="2">
-        <v>18.8895049008269</v>
+        <v>16.8004243738533</v>
       </c>
       <c r="F18" s="2">
-        <v>13.1846824421714</v>
+        <v>13.7925516750922</v>
       </c>
       <c r="G18" s="2">
-        <v>37.238031779493497</v>
+        <v>39.696195973627802</v>
       </c>
       <c r="H18" s="2">
-        <v>19.009996040820202</v>
+        <v>17.110920411199199</v>
       </c>
       <c r="I18" s="2">
-        <v>63.734822076022098</v>
+        <v>60.138099804646501</v>
       </c>
       <c r="J18" s="2">
-        <v>15.047351830646701</v>
+        <v>14.256447783720001</v>
       </c>
       <c r="K18" s="2">
-        <v>10.1474452554744</v>
+        <v>8.9656019656019605</v>
       </c>
       <c r="L18" s="2">
-        <v>11.737730684352501</v>
+        <v>11.3544545447694</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -4529,7 +4532,7 @@
       <c r="AP18">
         <v>9203</v>
       </c>
-      <c r="AQ18" s="5" t="s">
+      <c r="AQ18" t="s">
         <v>41</v>
       </c>
       <c r="AR18" t="s">
@@ -4735,7 +4738,7 @@
       <c r="AP19">
         <v>1512</v>
       </c>
-      <c r="AQ19" s="5" t="s">
+      <c r="AQ19" t="s">
         <v>41</v>
       </c>
       <c r="AR19" t="s">
@@ -4941,7 +4944,7 @@
       <c r="AP20">
         <v>1512</v>
       </c>
-      <c r="AQ20" s="5" t="s">
+      <c r="AQ20" t="s">
         <v>41</v>
       </c>
       <c r="AR20" t="s">
@@ -5023,42 +5026,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>45133</v>
+        <v>44522</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2">
-        <v>17.260049050856999</v>
+        <v>14.7198088410991</v>
       </c>
       <c r="E21" s="2">
-        <v>19.881484747603501</v>
+        <v>17.034600183851101</v>
       </c>
       <c r="F21" s="2">
-        <v>14.467303549936201</v>
+        <v>13.876921569096901</v>
       </c>
       <c r="G21" s="2">
-        <v>29.524244610898599</v>
+        <v>38.8121220787596</v>
       </c>
       <c r="H21" s="2">
-        <v>20.501036501865201</v>
+        <v>17.410022179185599</v>
       </c>
       <c r="I21" s="2">
-        <v>67.827176890022201</v>
+        <v>60.689435324208397</v>
       </c>
       <c r="J21" s="2">
-        <v>16.493825748590801</v>
+        <v>14.4722666995588</v>
       </c>
       <c r="K21" s="2">
-        <v>11.4861111111111</v>
+        <v>9.1364764267989997</v>
       </c>
       <c r="L21" s="2">
-        <v>12.196197587004701</v>
+        <v>11.3696768906548</v>
       </c>
       <c r="N21" t="s">
         <v>43</v>
@@ -5147,7 +5150,7 @@
       <c r="AP21">
         <v>1034</v>
       </c>
-      <c r="AQ21" s="5" t="s">
+      <c r="AQ21" t="s">
         <v>41</v>
       </c>
       <c r="AR21" t="s">
@@ -5229,42 +5232,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4">
-        <v>45133</v>
+        <v>44200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>17.260049050856999</v>
+        <v>13.9803380569067</v>
       </c>
       <c r="E22" s="2">
-        <v>19.881484747603501</v>
+        <v>15.5819710276189</v>
       </c>
       <c r="F22" s="2">
-        <v>14.467303549936201</v>
+        <v>13.5767093748397</v>
       </c>
       <c r="G22" s="2">
-        <v>29.524244610898599</v>
+        <v>39.479114742128502</v>
       </c>
       <c r="H22" s="2">
-        <v>20.501036501865201</v>
+        <v>16.557987706836499</v>
       </c>
       <c r="I22" s="2">
-        <v>67.827176890022201</v>
+        <v>58.234974965908798</v>
       </c>
       <c r="J22" s="2">
-        <v>16.493825748590801</v>
+        <v>14.0808715490124</v>
       </c>
       <c r="K22" s="2">
-        <v>11.4861111111111</v>
+        <v>8.3142857142857096</v>
       </c>
       <c r="L22" s="2">
-        <v>12.196197587004701</v>
+        <v>11.167520650886299</v>
       </c>
       <c r="N22" t="s">
         <v>43</v>
@@ -5353,7 +5356,7 @@
       <c r="AP22">
         <v>1034</v>
       </c>
-      <c r="AQ22" s="5" t="s">
+      <c r="AQ22" t="s">
         <v>41</v>
       </c>
       <c r="AR22" t="s">
@@ -5435,42 +5438,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4">
-        <v>45078</v>
+        <v>44200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>15.331419410464999</v>
+        <v>12.9082454458293</v>
       </c>
       <c r="E23" s="2">
-        <v>17.893871099854501</v>
+        <v>14.3932570617302</v>
       </c>
       <c r="F23" s="2">
-        <v>12.808579608535799</v>
+        <v>13.3210607576701</v>
       </c>
       <c r="G23" s="2">
-        <v>40.890315514361099</v>
+        <v>43.345401947046199</v>
       </c>
       <c r="H23" s="2">
-        <v>18.266961254513099</v>
+        <v>15.4491924183199</v>
       </c>
       <c r="I23" s="2">
-        <v>61.352050439187302</v>
+        <v>55.545320451360702</v>
       </c>
       <c r="J23" s="2">
-        <v>14.615356734055499</v>
+        <v>13.390718597240101</v>
       </c>
       <c r="K23" s="2">
-        <v>9.4063079777365495</v>
+        <v>7.4780219780219701</v>
       </c>
       <c r="L23" s="2">
-        <v>11.3701343158915</v>
+        <v>10.757183081348099</v>
       </c>
       <c r="N23" t="s">
         <v>43</v>
@@ -5559,7 +5562,7 @@
       <c r="AP23">
         <v>6604</v>
       </c>
-      <c r="AQ23" s="5" t="s">
+      <c r="AQ23" t="s">
         <v>41</v>
       </c>
       <c r="AR23" t="s">
@@ -5641,42 +5644,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B24" s="4">
-        <v>45078</v>
+        <v>44032</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>15.585148307653901</v>
+        <v>11.955405970149201</v>
       </c>
       <c r="E24" s="2">
-        <v>18.159799326796801</v>
+        <v>13.267063432835799</v>
       </c>
       <c r="F24" s="2">
-        <v>13.013155622379401</v>
+        <v>12.7515830123134</v>
       </c>
       <c r="G24" s="2">
-        <v>39.4531005050302</v>
+        <v>47.535265671641802</v>
       </c>
       <c r="H24" s="2">
-        <v>18.5585310288307</v>
+        <v>14.396895522388</v>
       </c>
       <c r="I24" s="2">
-        <v>62.189908178641801</v>
+        <v>53.268358208955199</v>
       </c>
       <c r="J24" s="2">
-        <v>14.861910387150401</v>
+        <v>12.6747092979582</v>
       </c>
       <c r="K24" s="2">
-        <v>9.6672131147540892</v>
+        <v>6.8239999999999998</v>
       </c>
       <c r="L24" s="2">
-        <v>11.4734942050634</v>
+        <v>10.4974463880597</v>
       </c>
       <c r="N24" t="s">
         <v>43</v>
@@ -5765,7 +5768,7 @@
       <c r="AP24">
         <v>7638</v>
       </c>
-      <c r="AQ24" s="5" t="s">
+      <c r="AQ24" t="s">
         <v>41</v>
       </c>
       <c r="AR24" t="s">
@@ -5847,42 +5850,42 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B25" s="4">
-        <v>45092</v>
+        <v>43818</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>16.028972572819601</v>
+        <v>11.8515861665879</v>
       </c>
       <c r="E25" s="2">
-        <v>18.707954663803001</v>
+        <v>13.1443690153455</v>
       </c>
       <c r="F25" s="2">
-        <v>13.022219048461</v>
+        <v>12.8890488955281</v>
       </c>
       <c r="G25" s="2">
-        <v>38.290946259992502</v>
+        <v>47.352278894222401</v>
       </c>
       <c r="H25" s="2">
-        <v>18.782539445754999</v>
+        <v>14.3353595145123</v>
       </c>
       <c r="I25" s="2">
-        <v>63.098394634907599</v>
+        <v>53.186124306712699</v>
       </c>
       <c r="J25" s="2">
-        <v>14.8383420065233</v>
+        <v>12.676209601805001</v>
       </c>
       <c r="K25" s="2">
-        <v>9.9414634146341392</v>
+        <v>6.75</v>
       </c>
       <c r="L25" s="2">
-        <v>11.675450719543299</v>
+        <v>10.536000539707</v>
       </c>
       <c r="N25" t="s">
         <v>43</v>
@@ -5971,7 +5974,7 @@
       <c r="AP25">
         <v>8163</v>
       </c>
-      <c r="AQ25" s="5" t="s">
+      <c r="AQ25" t="s">
         <v>41</v>
       </c>
       <c r="AR25" t="s">
@@ -6053,42 +6056,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B26" s="4">
-        <v>45092</v>
+        <v>43214</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>16.1766729177771</v>
+        <v>14.2333389006409</v>
       </c>
       <c r="E26" s="2">
-        <v>18.854853597680101</v>
+        <v>16.028324756101402</v>
       </c>
       <c r="F26" s="2">
-        <v>13.1751266812892</v>
+        <v>13.4078928104379</v>
       </c>
       <c r="G26" s="2">
-        <v>37.323017519031097</v>
+        <v>39.897295946073903</v>
       </c>
       <c r="H26" s="2">
-        <v>18.9818458757812</v>
+        <v>17.127101316578699</v>
       </c>
       <c r="I26" s="2">
-        <v>63.642033886100698</v>
+        <v>58.974521937717697</v>
       </c>
       <c r="J26" s="2">
-        <v>15.0313002867072</v>
+        <v>14.4132886537902</v>
       </c>
       <c r="K26" s="2">
-        <v>10.1180758017492</v>
+        <v>8.5947368421052595</v>
       </c>
       <c r="L26" s="2">
-        <v>11.7324373777413</v>
+        <v>11.067319151538101</v>
       </c>
       <c r="N26" t="s">
         <v>43</v>
@@ -6177,7 +6180,7 @@
       <c r="AP26">
         <v>9197</v>
       </c>
-      <c r="AQ26" s="5" t="s">
+      <c r="AQ26" t="s">
         <v>41</v>
       </c>
       <c r="AR26" t="s">
@@ -6383,7 +6386,7 @@
       <c r="AP27">
         <v>928</v>
       </c>
-      <c r="AQ27" s="5" t="s">
+      <c r="AQ27" t="s">
         <v>41</v>
       </c>
       <c r="AR27" t="s">
@@ -6589,7 +6592,7 @@
       <c r="AP28">
         <v>928</v>
       </c>
-      <c r="AQ28" s="5" t="s">
+      <c r="AQ28" t="s">
         <v>41</v>
       </c>
       <c r="AR28" t="s">
@@ -6671,42 +6674,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" s="4">
-        <v>45348</v>
+        <v>42607</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>10.7621662120139</v>
+        <v>11.7909580183521</v>
       </c>
       <c r="E29" s="2">
-        <v>11.8765889666821</v>
+        <v>13.0793438881757</v>
       </c>
       <c r="F29" s="2">
-        <v>11.332021062821701</v>
+        <v>12.8444242358674</v>
       </c>
       <c r="G29" s="2">
-        <v>55.080798912614704</v>
+        <v>47.6699400941378</v>
       </c>
       <c r="H29" s="2">
-        <v>13.9451935700726</v>
+        <v>14.3297675082014</v>
       </c>
       <c r="I29" s="2">
-        <v>49.063854982328301</v>
+        <v>53.017401226643798</v>
       </c>
       <c r="J29" s="2">
-        <v>12.3596637645336</v>
+        <v>12.677734062546101</v>
       </c>
       <c r="K29" s="2">
-        <v>5.8842975206611499</v>
+        <v>6.7073170731707297</v>
       </c>
       <c r="L29" s="2">
-        <v>10.379721423831899</v>
+        <v>10.512833666143599</v>
       </c>
       <c r="N29" t="s">
         <v>43</v>
@@ -6795,7 +6798,7 @@
       <c r="AP29">
         <v>2739</v>
       </c>
-      <c r="AQ29" s="5" t="s">
+      <c r="AQ29" t="s">
         <v>41</v>
       </c>
       <c r="AR29" t="s">
@@ -6877,42 +6880,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" s="4">
-        <v>45317</v>
+        <v>42607</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>10.544093417274601</v>
+        <v>11.7909580183521</v>
       </c>
       <c r="E30" s="2">
-        <v>11.915977005498601</v>
+        <v>13.0793438881757</v>
       </c>
       <c r="F30" s="2">
-        <v>11.2358361439153</v>
+        <v>12.8444242358674</v>
       </c>
       <c r="G30" s="2">
-        <v>57.1089719849601</v>
+        <v>47.6699400941378</v>
       </c>
       <c r="H30" s="2">
-        <v>13.5995546958577</v>
+        <v>14.3297675082014</v>
       </c>
       <c r="I30" s="2">
-        <v>49.085810397996603</v>
+        <v>53.017401226643798</v>
       </c>
       <c r="J30" s="2">
-        <v>12.031361758210499</v>
+        <v>12.677734062546101</v>
       </c>
       <c r="K30" s="2">
-        <v>5.9073482428114996</v>
+        <v>6.7073170731707297</v>
       </c>
       <c r="L30" s="2">
-        <v>10.482776755075401</v>
+        <v>10.512833666143599</v>
       </c>
       <c r="N30" t="s">
         <v>43</v>
@@ -7001,7 +7004,7 @@
       <c r="AP30">
         <v>2429</v>
       </c>
-      <c r="AQ30" s="5" t="s">
+      <c r="AQ30" t="s">
         <v>41</v>
       </c>
       <c r="AR30" t="s">
@@ -7083,42 +7086,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="4">
-        <v>45379</v>
+        <v>41097</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>13.8603450025931</v>
+        <v>16.465115654858</v>
       </c>
       <c r="E31" s="2">
-        <v>15.6745905262897</v>
+        <v>19.6280318543307</v>
       </c>
       <c r="F31" s="2">
-        <v>13.7346899664369</v>
+        <v>13.643549939633401</v>
       </c>
       <c r="G31" s="2">
-        <v>40.208648446568397</v>
+        <v>36.736674387092002</v>
       </c>
       <c r="H31" s="2">
-        <v>17.3060685090513</v>
+        <v>19.189985670313298</v>
       </c>
       <c r="I31" s="2">
-        <v>59.002001679385501</v>
+        <v>66.120849910601805</v>
       </c>
       <c r="J31" s="2">
-        <v>14.704699910719601</v>
+        <v>15.0540949398649</v>
       </c>
       <c r="K31" s="2">
-        <v>8.5</v>
+        <v>10.927710843373401</v>
       </c>
       <c r="L31" s="2">
-        <v>11.112905929218799</v>
+        <v>11.6825440298022</v>
       </c>
       <c r="N31" t="s">
         <v>43</v>
@@ -7207,7 +7210,7 @@
       <c r="AP31">
         <v>1777</v>
       </c>
-      <c r="AQ31" s="5" t="s">
+      <c r="AQ31" t="s">
         <v>41</v>
       </c>
       <c r="AR31" t="s">
@@ -7289,42 +7292,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" s="4">
-        <v>45249</v>
+        <v>41097</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>13.0858792815764</v>
+        <v>16.465115654858</v>
       </c>
       <c r="E32" s="2">
-        <v>14.700080285431399</v>
+        <v>19.6280318543307</v>
       </c>
       <c r="F32" s="2">
-        <v>14.304046346314299</v>
+        <v>13.643549939633401</v>
       </c>
       <c r="G32" s="2">
-        <v>40.1810571411119</v>
+        <v>36.736674387092002</v>
       </c>
       <c r="H32" s="2">
-        <v>15.587431868586201</v>
+        <v>19.189985670313298</v>
       </c>
       <c r="I32" s="2">
-        <v>57.2346900098986</v>
+        <v>66.120849910601805</v>
       </c>
       <c r="J32" s="2">
-        <v>13.592258774498699</v>
+        <v>15.0540949398649</v>
       </c>
       <c r="K32" s="2">
-        <v>7.7331081081080999</v>
+        <v>10.927710843373401</v>
       </c>
       <c r="L32" s="2">
-        <v>11.172500259786901</v>
+        <v>11.6825440298022</v>
       </c>
       <c r="N32" t="s">
         <v>43</v>
@@ -7413,7 +7416,7 @@
       <c r="AP32">
         <v>2644</v>
       </c>
-      <c r="AQ32" s="5" t="s">
+      <c r="AQ32" t="s">
         <v>41</v>
       </c>
       <c r="AR32" t="s">
@@ -7496,6 +7499,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L32" xr:uid="{FE773D15-C3A2-4B50-9ADC-8BCA9C5A31DC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Meta"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L28">
+      <sortCondition descending="1" ref="B1:B32"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Readability/readability_results_sorted.xlsx
+++ b/Readability/readability_results_sorted.xlsx
@@ -2,28 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UC Irvine\01 - Academics\3_Spring 24\EECS232 Data Privacy\Project\data_privacy_readability_ws\Readability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74007563-F3C5-4103-B2EE-AD0E629165A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7BD63-69A6-4DD0-92E6-E550DE9E4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20355" yWindow="2925" windowWidth="17895" windowHeight="14700" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="readability_results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">readability_results!$A$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$18</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="51">
   <si>
     <t>Meta</t>
   </si>
@@ -165,11 +167,26 @@
   <si>
     <t>sentence info:s'</t>
   </si>
+  <si>
+    <t>Meta EU</t>
+  </si>
+  <si>
+    <t>Meta US</t>
+  </si>
+  <si>
+    <t>WhatsApp EU</t>
+  </si>
+  <si>
+    <t>WhatsApp US</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,12 +679,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -724,6 +744,1441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Readability Index Trends - Whatsapp and Meta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4892476987883723E-2"/>
+          <c:y val="0.15902762405905005"/>
+          <c:w val="0.87532968945681044"/>
+          <c:h val="0.64400671474018956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WhatsApp EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmmm\ d\,\ yyyy;@</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>17.095412634649101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.095412634649101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.095412634649101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.971515144875099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.6794562772189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.6794562772189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.6794562772189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.8004243738533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.8004243738533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.034600183851101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.5819710276189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.028324756101402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.028324756101402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.028324756101402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0793438881757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0793438881757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.6280318543307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBFA-4212-8A5F-0A1A7EB67112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WhatsApp US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3932570617302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.267063432835799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.1443690153455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0793438881757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0793438881757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.0793438881757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.6280318543307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBFA-4212-8A5F-0A1A7EB67112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meta EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18.7466172726016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7466172726016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.707954663803001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.707954663803001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.707954663803001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.893871099854501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.881484747603501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.881484747603501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBFA-4212-8A5F-0A1A7EB67112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meta US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>18.8895049008269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.8895049008269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.854853597680101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.854853597680101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.854853597680101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.159799326796801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.881484747603501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.881484747603501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.452621124334399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.4084611308639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBFA-4212-8A5F-0A1A7EB67112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="608625008"/>
+        <c:axId val="608610608"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="608625008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45658"/>
+          <c:min val="40909"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$-409]mmm/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608610608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+        <c:minorUnit val="6"/>
+        <c:minorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="608610608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                  <a:alpha val="24000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ARI readability Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608625008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="+mj-lt"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>115955</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC82E9B-AEDF-B748-378C-0BFE23395E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,17 +2498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE773D15-C3A2-4B50-9ADC-8BCA9C5A31DC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1076,10 +2530,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
@@ -1112,7 +2566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1123,10 +2577,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
+        <v>15.6745905262897</v>
+      </c>
+      <c r="E2" s="2">
         <v>13.8603450025931</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15.6745905262897</v>
       </c>
       <c r="F2" s="2">
         <v>13.7346899664369</v>
@@ -1318,7 +2772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,10 +2783,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
+        <v>11.8765889666821</v>
+      </c>
+      <c r="E3" s="2">
         <v>10.7621662120139</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11.8765889666821</v>
       </c>
       <c r="F3" s="2">
         <v>11.332021062821701</v>
@@ -1524,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1535,10 +2989,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
+        <v>17.095412634649101</v>
+      </c>
+      <c r="E4" s="2">
         <v>14.8580413378647</v>
-      </c>
-      <c r="E4" s="2">
-        <v>17.095412634649101</v>
       </c>
       <c r="F4" s="2">
         <v>13.8790491277031</v>
@@ -1730,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1741,10 +3195,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
+        <v>11.915977005498601</v>
+      </c>
+      <c r="E5" s="2">
         <v>10.544093417274601</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11.915977005498601</v>
       </c>
       <c r="F5" s="2">
         <v>11.2358361439153</v>
@@ -1947,10 +3401,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
+        <v>18.7466172726016</v>
+      </c>
+      <c r="E6" s="2">
         <v>16.057866212720899</v>
-      </c>
-      <c r="E6" s="2">
-        <v>18.7466172726016</v>
       </c>
       <c r="F6" s="2">
         <v>13.032940023003301</v>
@@ -2153,10 +3607,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
+        <v>18.8895049008269</v>
+      </c>
+      <c r="E7" s="2">
         <v>16.2025613557376</v>
-      </c>
-      <c r="E7" s="2">
-        <v>18.8895049008269</v>
       </c>
       <c r="F7" s="2">
         <v>13.1846824421714</v>
@@ -2348,7 +3802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2359,10 +3813,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2">
+        <v>17.095412634649101</v>
+      </c>
+      <c r="E8" s="2">
         <v>14.8580413378647</v>
-      </c>
-      <c r="E8" s="2">
-        <v>17.095412634649101</v>
       </c>
       <c r="F8" s="2">
         <v>13.8790491277031</v>
@@ -2554,7 +4008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -2565,10 +4019,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
+        <v>14.700080285431399</v>
+      </c>
+      <c r="E9" s="2">
         <v>13.0858792815764</v>
-      </c>
-      <c r="E9" s="2">
-        <v>14.700080285431399</v>
       </c>
       <c r="F9" s="2">
         <v>14.304046346314299</v>
@@ -2771,10 +4225,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
+        <v>18.707954663803001</v>
+      </c>
+      <c r="E10" s="2">
         <v>16.028972572819601</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18.707954663803001</v>
       </c>
       <c r="F10" s="2">
         <v>13.022219048461</v>
@@ -2977,10 +4431,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
+        <v>18.854853597680101</v>
+      </c>
+      <c r="E11" s="2">
         <v>16.1766729177771</v>
-      </c>
-      <c r="E11" s="2">
-        <v>18.854853597680101</v>
       </c>
       <c r="F11" s="2">
         <v>13.1751266812892</v>
@@ -3172,7 +4626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3183,10 +4637,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="2">
+        <v>16.971515144875099</v>
+      </c>
+      <c r="E12" s="2">
         <v>14.7264768353163</v>
-      </c>
-      <c r="E12" s="2">
-        <v>16.971515144875099</v>
       </c>
       <c r="F12" s="2">
         <v>13.870680920013699</v>
@@ -3389,10 +4843,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="2">
+        <v>17.893871099854501</v>
+      </c>
+      <c r="E13" s="2">
         <v>15.331419410464999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>17.893871099854501</v>
       </c>
       <c r="F13" s="2">
         <v>12.808579608535799</v>
@@ -3595,10 +5049,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="2">
+        <v>18.159799326796801</v>
+      </c>
+      <c r="E14" s="2">
         <v>15.585148307653901</v>
-      </c>
-      <c r="E14" s="2">
-        <v>18.159799326796801</v>
       </c>
       <c r="F14" s="2">
         <v>13.013155622379401</v>
@@ -3801,10 +5255,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="2">
+        <v>19.881484747603501</v>
+      </c>
+      <c r="E15" s="2">
         <v>17.260049050856999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>19.881484747603501</v>
       </c>
       <c r="F15" s="2">
         <v>14.467303549936201</v>
@@ -4007,10 +5461,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="2">
+        <v>19.881484747603501</v>
+      </c>
+      <c r="E16" s="2">
         <v>17.260049050856999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>19.881484747603501</v>
       </c>
       <c r="F16" s="2">
         <v>14.467303549936201</v>
@@ -4202,7 +5656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -4213,10 +5667,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="2">
+        <v>16.6794562772189</v>
+      </c>
+      <c r="E17" s="2">
         <v>14.472168281527701</v>
-      </c>
-      <c r="E17" s="2">
-        <v>16.6794562772189</v>
       </c>
       <c r="F17" s="2">
         <v>13.8555743561715</v>
@@ -4408,7 +5862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -4419,10 +5873,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
+        <v>16.8004243738533</v>
+      </c>
+      <c r="E18" s="2">
         <v>14.508187429704</v>
-      </c>
-      <c r="E18" s="2">
-        <v>16.8004243738533</v>
       </c>
       <c r="F18" s="2">
         <v>13.7925516750922</v>
@@ -4625,10 +6079,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="2">
+        <v>15.452621124334399</v>
+      </c>
+      <c r="E19" s="2">
         <v>13.570529282806101</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15.452621124334399</v>
       </c>
       <c r="F19" s="2">
         <v>12.5381417978155</v>
@@ -4831,10 +6285,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="2">
+        <v>15.452621124334399</v>
+      </c>
+      <c r="E20" s="2">
         <v>13.570529282806101</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15.452621124334399</v>
       </c>
       <c r="F20" s="2">
         <v>12.5381417978155</v>
@@ -5026,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -5037,10 +6491,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="2">
+        <v>17.034600183851101</v>
+      </c>
+      <c r="E21" s="2">
         <v>14.7198088410991</v>
-      </c>
-      <c r="E21" s="2">
-        <v>17.034600183851101</v>
       </c>
       <c r="F21" s="2">
         <v>13.876921569096901</v>
@@ -5232,7 +6686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -5243,10 +6697,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2">
+        <v>15.5819710276189</v>
+      </c>
+      <c r="E22" s="2">
         <v>13.9803380569067</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15.5819710276189</v>
       </c>
       <c r="F22" s="2">
         <v>13.5767093748397</v>
@@ -5438,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -5449,10 +6903,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="E23" s="2">
         <v>12.9082454458293</v>
-      </c>
-      <c r="E23" s="2">
-        <v>14.3932570617302</v>
       </c>
       <c r="F23" s="2">
         <v>13.3210607576701</v>
@@ -5644,7 +7098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -5655,10 +7109,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="2">
+        <v>13.267063432835799</v>
+      </c>
+      <c r="E24" s="2">
         <v>11.955405970149201</v>
-      </c>
-      <c r="E24" s="2">
-        <v>13.267063432835799</v>
       </c>
       <c r="F24" s="2">
         <v>12.7515830123134</v>
@@ -5850,7 +7304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -5861,10 +7315,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="2">
+        <v>13.1443690153455</v>
+      </c>
+      <c r="E25" s="2">
         <v>11.8515861665879</v>
-      </c>
-      <c r="E25" s="2">
-        <v>13.1443690153455</v>
       </c>
       <c r="F25" s="2">
         <v>12.8890488955281</v>
@@ -6056,7 +7510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -6067,10 +7521,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
+        <v>16.028324756101402</v>
+      </c>
+      <c r="E26" s="2">
         <v>14.2333389006409</v>
-      </c>
-      <c r="E26" s="2">
-        <v>16.028324756101402</v>
       </c>
       <c r="F26" s="2">
         <v>13.4078928104379</v>
@@ -6273,10 +7727,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E27" s="2">
         <v>12.2398801662998</v>
-      </c>
-      <c r="E27" s="2">
-        <v>13.4084611308639</v>
       </c>
       <c r="F27" s="2">
         <v>11.877761117754901</v>
@@ -6479,10 +7933,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E28" s="2">
         <v>12.2398801662998</v>
-      </c>
-      <c r="E28" s="2">
-        <v>13.4084611308639</v>
       </c>
       <c r="F28" s="2">
         <v>11.877761117754901</v>
@@ -6674,7 +8128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -6685,10 +8139,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="E29" s="2">
         <v>11.7909580183521</v>
-      </c>
-      <c r="E29" s="2">
-        <v>13.0793438881757</v>
       </c>
       <c r="F29" s="2">
         <v>12.8444242358674</v>
@@ -6880,7 +8334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -6891,10 +8345,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="E30" s="2">
         <v>11.7909580183521</v>
-      </c>
-      <c r="E30" s="2">
-        <v>13.0793438881757</v>
       </c>
       <c r="F30" s="2">
         <v>12.8444242358674</v>
@@ -7086,7 +8540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -7097,10 +8551,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="2">
+        <v>19.6280318543307</v>
+      </c>
+      <c r="E31" s="2">
         <v>16.465115654858</v>
-      </c>
-      <c r="E31" s="2">
-        <v>19.6280318543307</v>
       </c>
       <c r="F31" s="2">
         <v>13.643549939633401</v>
@@ -7292,7 +8746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -7303,10 +8757,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="2">
+        <v>19.6280318543307</v>
+      </c>
+      <c r="E32" s="2">
         <v>16.465115654858</v>
-      </c>
-      <c r="E32" s="2">
-        <v>19.6280318543307</v>
       </c>
       <c r="F32" s="2">
         <v>13.643549939633401</v>
@@ -7500,15 +8954,338 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L32" xr:uid="{FE773D15-C3A2-4B50-9ADC-8BCA9C5A31DC}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Meta"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L28">
       <sortCondition descending="1" ref="B1:B32"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E238B8C-CD75-4E94-B7DA-1526F7482999}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45338</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17.095412634649101</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18.7466172726016</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18.8895049008269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45287</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17.095412634649101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18.7466172726016</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18.8895049008269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45264</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17.095412634649101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.707954663803001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18.854853597680101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16.971515144875099</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18.707954663803001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.854853597680101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.6794562772189</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18.707954663803001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.854853597680101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44927</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16.6794562772189</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.893871099854501</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18.159799326796801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>44879</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16.6794562772189</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.881484747603501</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19.881484747603501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>44768</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16.8004243738533</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19.881484747603501</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19.881484747603501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44630</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16.8004243738533</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15.452621124334399</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15.452621124334399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44522</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17.034600183851101</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15.452621124334399</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15.452621124334399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15.5819710276189</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14.3932570617302</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15.452621124334399</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15.452621124334399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44032</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.028324756101402</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.267063432835799</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13.4084611308639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43818</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16.028324756101402</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.1443690153455</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13.4084611308639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43214</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.028324756101402</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13.4084611308639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>42622</v>
+      </c>
+      <c r="B16" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13.4084611308639</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13.4084611308639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>42607</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13.0793438881757</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>41097</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19.6280318543307</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19.6280318543307</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E18" xr:uid="{5E238B8C-CD75-4E94-B7DA-1526F7482999}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+      <sortCondition descending="1" ref="A1:A18"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Readability/readability_results_sorted.xlsx
+++ b/Readability/readability_results_sorted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UC Irvine\01 - Academics\3_Spring 24\EECS232 Data Privacy\Project\data_privacy_readability_ws\Readability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7BD63-69A6-4DD0-92E6-E550DE9E4DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C36B7-A216-485D-A5C8-1305F1A457DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{9FE58981-A030-48B7-BDE4-47B605489D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="readability_results" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -685,9 +685,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -852,6 +852,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$2:$A$18</c:f>
@@ -1006,6 +1009,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$2:$C$18</c:f>
@@ -1100,6 +1106,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$D$2:$D$18</c:f>
@@ -1188,6 +1197,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$E$2:$E$18</c:f>
@@ -1250,9 +1262,8 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1439,9 +1450,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ARI readability Index</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Automated Readability Index (ARI)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2145,15 +2157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>538369</xdr:colOff>
+      <xdr:colOff>173182</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>52180</xdr:rowOff>
+      <xdr:rowOff>26203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>115955</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2500,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE773D15-C3A2-4B50-9ADC-8BCA9C5A31DC}">
   <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -8966,8 +8978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E238B8C-CD75-4E94-B7DA-1526F7482999}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
